--- a/Code/Results/Cases/Case_0_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3074748644724536</v>
+        <v>0.4242059179547937</v>
       </c>
       <c r="D2">
-        <v>0.1461718679297377</v>
+        <v>0.1934919952619367</v>
       </c>
       <c r="E2">
-        <v>0.10771573146177</v>
+        <v>0.1847061095799241</v>
       </c>
       <c r="F2">
-        <v>0.7680839529950063</v>
+        <v>1.569126101909163</v>
       </c>
       <c r="G2">
-        <v>0.4785255133642039</v>
+        <v>0.9162775796953326</v>
       </c>
       <c r="H2">
-        <v>0.3716446163887355</v>
+        <v>0.9664544584577754</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1091168447676694</v>
+        <v>0.2220857320067822</v>
       </c>
       <c r="K2">
-        <v>3.153844685666911</v>
+        <v>1.389556250315991</v>
       </c>
       <c r="L2">
-        <v>0.07932986047760693</v>
+        <v>0.1675501044385541</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9898933669688716</v>
+        <v>1.286538529941922</v>
       </c>
       <c r="O2">
-        <v>1.740692043925321</v>
+        <v>3.803466808656538</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2800884038414893</v>
+        <v>0.4193116607325891</v>
       </c>
       <c r="D3">
-        <v>0.1320408365853609</v>
+        <v>0.1903551570391926</v>
       </c>
       <c r="E3">
-        <v>0.0997563399595478</v>
+        <v>0.183556004613564</v>
       </c>
       <c r="F3">
-        <v>0.7342434931302435</v>
+        <v>1.572856189925844</v>
       </c>
       <c r="G3">
-        <v>0.4563595701543903</v>
+        <v>0.9192893309116528</v>
       </c>
       <c r="H3">
-        <v>0.3678127928288433</v>
+        <v>0.9723775012726463</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1033271638690891</v>
+        <v>0.2219464923611625</v>
       </c>
       <c r="K3">
-        <v>2.745395176880493</v>
+        <v>1.265718408431127</v>
       </c>
       <c r="L3">
-        <v>0.07490873698573708</v>
+        <v>0.167146121090763</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9763125464950377</v>
+        <v>1.285202279938034</v>
       </c>
       <c r="O3">
-        <v>1.685262142441104</v>
+        <v>3.821934823871459</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2635841118619595</v>
+        <v>0.4164961663937135</v>
       </c>
       <c r="D4">
-        <v>0.1234504159017717</v>
+        <v>0.1884929830112156</v>
       </c>
       <c r="E4">
-        <v>0.09497403352288813</v>
+        <v>0.1829205418578894</v>
       </c>
       <c r="F4">
-        <v>0.7148901225417461</v>
+        <v>1.575963697964795</v>
       </c>
       <c r="G4">
-        <v>0.443860487971321</v>
+        <v>0.9217119713380697</v>
       </c>
       <c r="H4">
-        <v>0.3661352714188411</v>
+        <v>0.9764365902572507</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09991564115062346</v>
+        <v>0.2219527906590457</v>
       </c>
       <c r="K4">
-        <v>2.494681184043685</v>
+        <v>1.189708508205314</v>
       </c>
       <c r="L4">
-        <v>0.07226459740897084</v>
+        <v>0.1669507612362295</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9688721125721997</v>
+        <v>1.284826507135335</v>
       </c>
       <c r="O4">
-        <v>1.654985322003654</v>
+        <v>3.835362702607085</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2569319177569582</v>
+        <v>0.4153966376714635</v>
       </c>
       <c r="D5">
-        <v>0.1199700098288474</v>
+        <v>0.1877502867354508</v>
       </c>
       <c r="E5">
-        <v>0.09305017696530626</v>
+        <v>0.182679418098985</v>
       </c>
       <c r="F5">
-        <v>0.7073440027511779</v>
+        <v>1.577435602051182</v>
       </c>
       <c r="G5">
-        <v>0.4390312067275204</v>
+        <v>0.9228433157135356</v>
       </c>
       <c r="H5">
-        <v>0.3656146413046883</v>
+        <v>0.978196953668089</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09855973293034026</v>
+        <v>0.2219784752563072</v>
       </c>
       <c r="K5">
-        <v>2.392508787276284</v>
+        <v>1.158743051111486</v>
       </c>
       <c r="L5">
-        <v>0.0712040533285041</v>
+        <v>0.1668844412293637</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9660585540066506</v>
+        <v>1.284785584153994</v>
       </c>
       <c r="O5">
-        <v>1.643545684808515</v>
+        <v>3.841359747022466</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2558316259472093</v>
+        <v>0.4152169531373602</v>
       </c>
       <c r="D6">
-        <v>0.1193932755595597</v>
+        <v>0.1876279411572597</v>
       </c>
       <c r="E6">
-        <v>0.09273219131680932</v>
+        <v>0.1826404582742995</v>
       </c>
       <c r="F6">
-        <v>0.7061110399148447</v>
+        <v>1.577692428650678</v>
       </c>
       <c r="G6">
-        <v>0.4382448356633901</v>
+        <v>0.9230398751469622</v>
       </c>
       <c r="H6">
-        <v>0.3655378410064642</v>
+        <v>0.9784956796898854</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09833660884284257</v>
+        <v>0.2219841374993905</v>
       </c>
       <c r="K6">
-        <v>2.375542217954916</v>
+        <v>1.153601886486172</v>
       </c>
       <c r="L6">
-        <v>0.07102895418959676</v>
+        <v>0.166874232806201</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9656043523172144</v>
+        <v>1.284785577466693</v>
       </c>
       <c r="O6">
-        <v>1.641699088311412</v>
+        <v>3.842387262579507</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.263494106854381</v>
+        <v>0.4164811440159042</v>
       </c>
       <c r="D7">
-        <v>0.1234033976762419</v>
+        <v>0.1884829012097384</v>
       </c>
       <c r="E7">
-        <v>0.0949479883808273</v>
+        <v>0.1829172177051781</v>
       </c>
       <c r="F7">
-        <v>0.7147869969524479</v>
+        <v>1.575982716140018</v>
       </c>
       <c r="G7">
-        <v>0.4437943083740379</v>
+        <v>0.9217266457149833</v>
       </c>
       <c r="H7">
-        <v>0.3661275989202579</v>
+        <v>0.9764599008507844</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0998972181885307</v>
+        <v>0.2219530433986066</v>
       </c>
       <c r="K7">
-        <v>2.493303299048165</v>
+        <v>1.189290856816001</v>
       </c>
       <c r="L7">
-        <v>0.07225022681643622</v>
+        <v>0.1669498129518132</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9688332927809142</v>
+        <v>1.28482550039368</v>
       </c>
       <c r="O7">
-        <v>1.654827465145246</v>
+        <v>3.835441454949489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2979644771345136</v>
+        <v>0.4224791032751085</v>
       </c>
       <c r="D8">
-        <v>0.1412807576956254</v>
+        <v>0.192397216892644</v>
       </c>
       <c r="E8">
-        <v>0.1049487297590623</v>
+        <v>0.1842949092071535</v>
       </c>
       <c r="F8">
-        <v>0.7561090905778158</v>
+        <v>1.570242663116233</v>
       </c>
       <c r="G8">
-        <v>0.4706427823863919</v>
+        <v>0.917196963319256</v>
       </c>
       <c r="H8">
-        <v>0.3701790507567324</v>
+        <v>0.9684091052352954</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1070897342368369</v>
+        <v>0.2220186918763716</v>
       </c>
       <c r="K8">
-        <v>3.012980872540993</v>
+        <v>1.346852748435367</v>
       </c>
       <c r="L8">
-        <v>0.07779037032166514</v>
+        <v>0.1673999004436482</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9850196813204377</v>
+        <v>1.285985722477903</v>
       </c>
       <c r="O8">
-        <v>1.720771337262619</v>
+        <v>3.809401070009073</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3682607045556665</v>
+        <v>0.4357407181945518</v>
       </c>
       <c r="D9">
-        <v>0.1770894078305503</v>
+        <v>0.2005761081359623</v>
       </c>
       <c r="E9">
-        <v>0.1254583527923501</v>
+        <v>0.1875555672110139</v>
       </c>
       <c r="F9">
-        <v>0.8492941957413791</v>
+        <v>1.565469025537709</v>
       </c>
       <c r="G9">
-        <v>0.5328292497958955</v>
+        <v>0.9128690794626237</v>
       </c>
       <c r="H9">
-        <v>0.3838065977369638</v>
+        <v>0.9559702319344723</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1224151999221803</v>
+        <v>0.2228744060517656</v>
       </c>
       <c r="K9">
-        <v>4.033855212143635</v>
+        <v>1.655955551951251</v>
       </c>
       <c r="L9">
-        <v>0.08924997687739733</v>
+        <v>0.1686988996751708</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.024245884159242</v>
+        <v>1.291773857669739</v>
       </c>
       <c r="O9">
-        <v>1.88211232905357</v>
+        <v>3.77491326624002</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.421898710521333</v>
+        <v>0.4463933917397469</v>
       </c>
       <c r="D10">
-        <v>0.2039590585109607</v>
+        <v>0.2068874754244945</v>
       </c>
       <c r="E10">
-        <v>0.141174084804895</v>
+        <v>0.1902897029258455</v>
       </c>
       <c r="F10">
-        <v>0.9264175959105216</v>
+        <v>1.565913810592605</v>
       </c>
       <c r="G10">
-        <v>0.5853968222259169</v>
+        <v>0.912474452132912</v>
       </c>
       <c r="H10">
-        <v>0.3977622705008486</v>
+        <v>0.9488703853088083</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.134543185159778</v>
+        <v>0.2239448196654195</v>
       </c>
       <c r="K10">
-        <v>4.786832208524459</v>
+        <v>1.883030467533445</v>
       </c>
       <c r="L10">
-        <v>0.09808693745559793</v>
+        <v>0.1699051154265021</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.05816164435663</v>
+        <v>1.298149399008409</v>
       </c>
       <c r="O10">
-        <v>2.023435949763666</v>
+        <v>3.759694034043719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.446814620062753</v>
+        <v>0.4514360961225918</v>
       </c>
       <c r="D11">
-        <v>0.2163292257882148</v>
+        <v>0.2098234740445832</v>
       </c>
       <c r="E11">
-        <v>0.1484879027393156</v>
+        <v>0.1916065917210652</v>
       </c>
       <c r="F11">
-        <v>0.9636806381755179</v>
+        <v>1.566974458462667</v>
       </c>
       <c r="G11">
-        <v>0.6110577830283859</v>
+        <v>0.912901558700554</v>
       </c>
       <c r="H11">
-        <v>0.4050811899822122</v>
+        <v>0.9460827549424096</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1402786299330288</v>
+        <v>0.2245274084705429</v>
       </c>
       <c r="K11">
-        <v>5.130470898469184</v>
+        <v>1.986308224748484</v>
       </c>
       <c r="L11">
-        <v>0.1022108187026589</v>
+        <v>0.1705081338457575</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.074824828888609</v>
+        <v>1.301507100064342</v>
       </c>
       <c r="O11">
-        <v>2.093450205587487</v>
+        <v>3.754970745686364</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4563310345410514</v>
+        <v>0.4533738187837457</v>
       </c>
       <c r="D12">
-        <v>0.2210367790991938</v>
+        <v>0.2109445085899324</v>
       </c>
       <c r="E12">
-        <v>0.151283229324676</v>
+        <v>0.1921157307508778</v>
       </c>
       <c r="F12">
-        <v>0.9781310321216665</v>
+        <v>1.567499497309498</v>
       </c>
       <c r="G12">
-        <v>0.621048821912396</v>
+        <v>0.913150653322603</v>
       </c>
       <c r="H12">
-        <v>0.4080024063344183</v>
+        <v>0.9450906875177907</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1424845229106282</v>
+        <v>0.2247617441997747</v>
       </c>
       <c r="K12">
-        <v>5.26079628473218</v>
+        <v>2.02541185073602</v>
       </c>
       <c r="L12">
-        <v>0.1037885181043734</v>
+        <v>0.1707442516788618</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.081323650339257</v>
+        <v>1.302844022827941</v>
       </c>
       <c r="O12">
-        <v>2.120855317411554</v>
+        <v>3.753498712744147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4542777694643121</v>
+        <v>0.4529552452265477</v>
       </c>
       <c r="D13">
-        <v>0.2200218546788477</v>
+        <v>0.2107026645892915</v>
       </c>
       <c r="E13">
-        <v>0.1506800263621955</v>
+        <v>0.1920056140905828</v>
       </c>
       <c r="F13">
-        <v>0.9750033347402791</v>
+        <v>1.56738093327499</v>
       </c>
       <c r="G13">
-        <v>0.6188845213759038</v>
+        <v>0.913093119030151</v>
       </c>
       <c r="H13">
-        <v>0.4073664427927923</v>
+        <v>0.9453015211513218</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1420078885606344</v>
+        <v>0.2247106660382414</v>
       </c>
       <c r="K13">
-        <v>5.232718987793589</v>
+        <v>2.016990467211258</v>
       </c>
       <c r="L13">
-        <v>0.1034479984326282</v>
+        <v>0.1706930546553664</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.079915426425913</v>
+        <v>1.302553187795809</v>
       </c>
       <c r="O13">
-        <v>2.114912304736123</v>
+        <v>3.753801658269367</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4475958691361939</v>
+        <v>0.4515949501225691</v>
       </c>
       <c r="D14">
-        <v>0.2167160407311286</v>
+        <v>0.2099155177127869</v>
       </c>
       <c r="E14">
-        <v>0.148717347667862</v>
+        <v>0.1916482695241974</v>
       </c>
       <c r="F14">
-        <v>0.9648625156253985</v>
+        <v>1.567015180887196</v>
       </c>
       <c r="G14">
-        <v>0.611874130336119</v>
+        <v>0.9129203003447088</v>
       </c>
       <c r="H14">
-        <v>0.4053184592744117</v>
+        <v>0.945999863535107</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1404594129928114</v>
+        <v>0.2245464125898167</v>
       </c>
       <c r="K14">
-        <v>5.141188672524777</v>
+        <v>1.989525426941327</v>
       </c>
       <c r="L14">
-        <v>0.1023402880265536</v>
+        <v>0.1705274039577986</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.075355638920044</v>
+        <v>1.301615780053652</v>
       </c>
       <c r="O14">
-        <v>2.095686546975003</v>
+        <v>3.754843294816141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4435138204369196</v>
+        <v>0.4507653934205109</v>
       </c>
       <c r="D15">
-        <v>0.214694225494398</v>
+        <v>0.2094345672822442</v>
       </c>
       <c r="E15">
-        <v>0.1475185665271184</v>
+        <v>0.1914307465468355</v>
       </c>
       <c r="F15">
-        <v>0.9586960209334165</v>
+        <v>1.5668072157045</v>
       </c>
       <c r="G15">
-        <v>0.6076164126126002</v>
+        <v>0.9128258243312786</v>
       </c>
       <c r="H15">
-        <v>0.404083819214506</v>
+        <v>0.946435893328669</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1395154358540083</v>
+        <v>0.224447588648971</v>
       </c>
       <c r="K15">
-        <v>5.085150528411418</v>
+        <v>1.972701514617427</v>
       </c>
       <c r="L15">
-        <v>0.1016639119143861</v>
+        <v>0.1704269485063534</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.072587577360181</v>
+        <v>1.301050102109571</v>
       </c>
       <c r="O15">
-        <v>2.084028537939332</v>
+        <v>3.755522560875761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4202813739028386</v>
+        <v>0.4460677869391816</v>
       </c>
       <c r="D16">
-        <v>0.2031537734418407</v>
+        <v>0.206696898876416</v>
       </c>
       <c r="E16">
-        <v>0.1406995961184556</v>
+        <v>0.190205107971785</v>
       </c>
       <c r="F16">
-        <v>0.9240284287003675</v>
+        <v>1.565861763669361</v>
       </c>
       <c r="G16">
-        <v>0.5837568721831303</v>
+        <v>0.9124587574055028</v>
       </c>
       <c r="H16">
-        <v>0.3973043412896118</v>
+        <v>0.9490614576814664</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1341729728078889</v>
+        <v>0.2239086680891944</v>
       </c>
       <c r="K16">
-        <v>4.764400027491774</v>
+        <v>1.876280405055809</v>
       </c>
       <c r="L16">
-        <v>0.09781961801080996</v>
+        <v>0.1698667959885611</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.057098459031522</v>
+        <v>1.297939140519688</v>
       </c>
       <c r="O16">
-        <v>2.018981347382095</v>
+        <v>3.760047000332321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4061660335221688</v>
+        <v>0.4432362556556768</v>
       </c>
       <c r="D17">
-        <v>0.1961131829360028</v>
+        <v>0.2050339853955023</v>
       </c>
       <c r="E17">
-        <v>0.1365599746929291</v>
+        <v>0.189471908142675</v>
       </c>
       <c r="F17">
-        <v>0.9033372973130724</v>
+        <v>1.565501572906868</v>
       </c>
       <c r="G17">
-        <v>0.5695829531335335</v>
+        <v>0.912389035278764</v>
       </c>
       <c r="H17">
-        <v>0.3934009043980069</v>
+        <v>0.9507853742663173</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1309532683458343</v>
+        <v>0.2236025333442981</v>
       </c>
       <c r="K17">
-        <v>4.567939144965976</v>
+        <v>1.817122279758905</v>
       </c>
       <c r="L17">
-        <v>0.09548866195021333</v>
+        <v>0.1695370400366301</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.047920419048964</v>
+        <v>1.296147579289581</v>
       </c>
       <c r="O17">
-        <v>1.980590979994673</v>
+        <v>3.763386227110942</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3980953481892016</v>
+        <v>0.441626160694284</v>
       </c>
       <c r="D18">
-        <v>0.1920773263421864</v>
+        <v>0.2040836386970994</v>
       </c>
       <c r="E18">
-        <v>0.134194339806804</v>
+        <v>0.1890570762098491</v>
       </c>
       <c r="F18">
-        <v>0.891639744730611</v>
+        <v>1.565375190985776</v>
       </c>
       <c r="G18">
-        <v>0.561593558059144</v>
+        <v>0.9124060237937357</v>
       </c>
       <c r="H18">
-        <v>0.3912464422597992</v>
+        <v>0.9518185421603675</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1291217663971693</v>
+        <v>0.2234354579321192</v>
       </c>
       <c r="K18">
-        <v>4.455041663105305</v>
+        <v>1.783094384377705</v>
       </c>
       <c r="L18">
-        <v>0.09415766502085887</v>
+        <v>0.1693524870143577</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.042756952058326</v>
+        <v>1.295160196778184</v>
       </c>
       <c r="O18">
-        <v>1.959044361251159</v>
+        <v>3.765513925258091</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3953708018727013</v>
+        <v>0.4410841962585152</v>
       </c>
       <c r="D19">
-        <v>0.1907131469809258</v>
+        <v>0.203762921331105</v>
       </c>
       <c r="E19">
-        <v>0.1333959549852679</v>
+        <v>0.1889178053812799</v>
       </c>
       <c r="F19">
-        <v>0.887713322527361</v>
+        <v>1.565346276952098</v>
       </c>
       <c r="G19">
-        <v>0.5589158336173199</v>
+        <v>0.9124215773464073</v>
       </c>
       <c r="H19">
-        <v>0.3905322566669867</v>
+        <v>0.9521755036656145</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1285050764054745</v>
+        <v>0.223380436716738</v>
       </c>
       <c r="K19">
-        <v>4.41683286588966</v>
+        <v>1.771572909278177</v>
       </c>
       <c r="L19">
-        <v>0.09370864633456222</v>
+        <v>0.1692908801005828</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.041028196569712</v>
+        <v>1.294833294999364</v>
       </c>
       <c r="O19">
-        <v>1.951838824955786</v>
+        <v>3.766269884069487</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4076636088166765</v>
+        <v>0.4435357604840249</v>
       </c>
       <c r="D20">
-        <v>0.1968612326983106</v>
+        <v>0.2052103730028279</v>
       </c>
       <c r="E20">
-        <v>0.136999039648785</v>
+        <v>0.1895492463012154</v>
       </c>
       <c r="F20">
-        <v>0.9055186635141865</v>
+        <v>1.565531554551001</v>
       </c>
       <c r="G20">
-        <v>0.5710747562114875</v>
+        <v>0.912390547708597</v>
       </c>
       <c r="H20">
-        <v>0.3938069743598192</v>
+        <v>0.9505975534465563</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1312938831374026</v>
+        <v>0.2236341901437697</v>
       </c>
       <c r="K20">
-        <v>4.588841959447507</v>
+        <v>1.823419958485147</v>
       </c>
       <c r="L20">
-        <v>0.09573578357232293</v>
+        <v>0.1695716141520549</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.048885404097476</v>
+        <v>1.296333838338882</v>
       </c>
       <c r="O20">
-        <v>1.98462189675152</v>
+        <v>3.763009328893588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4495562393592252</v>
+        <v>0.4519937385719857</v>
       </c>
       <c r="D21">
-        <v>0.2176863902493551</v>
+        <v>0.2101464719809627</v>
       </c>
       <c r="E21">
-        <v>0.1492931181420509</v>
+        <v>0.1917529467709187</v>
       </c>
       <c r="F21">
-        <v>0.9678316820977386</v>
+        <v>1.567119262577549</v>
       </c>
       <c r="G21">
-        <v>0.613925634640438</v>
+        <v>0.9129686894873146</v>
       </c>
       <c r="H21">
-        <v>0.4059158543663273</v>
+        <v>0.9457930190152553</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1409132932478272</v>
+        <v>0.2245942856584833</v>
       </c>
       <c r="K21">
-        <v>5.168067684113396</v>
+        <v>1.997592742613392</v>
       </c>
       <c r="L21">
-        <v>0.1026652037074243</v>
+        <v>0.170575849093396</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.076689740348172</v>
+        <v>1.301889346274777</v>
       </c>
       <c r="O21">
-        <v>2.101308829863086</v>
+        <v>3.754528747487569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4774130573740649</v>
+        <v>0.4576855924248662</v>
       </c>
       <c r="D22">
-        <v>0.231433375198435</v>
+        <v>0.2134262834588156</v>
       </c>
       <c r="E22">
-        <v>0.1574791220619289</v>
+        <v>0.1932541477136773</v>
       </c>
       <c r="F22">
-        <v>1.010550367095462</v>
+        <v>1.568876145086108</v>
       </c>
       <c r="G22">
-        <v>0.6435386002376191</v>
+        <v>0.9138557897984469</v>
       </c>
       <c r="H22">
-        <v>0.4147075129260429</v>
+        <v>0.9430233692465322</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1473996837492351</v>
+        <v>0.2253017307322409</v>
       </c>
       <c r="K22">
-        <v>5.547792608141663</v>
+        <v>2.111391947171057</v>
       </c>
       <c r="L22">
-        <v>0.1072882644557538</v>
+        <v>0.1712774326174298</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.095967957088419</v>
+        <v>1.305901437705131</v>
       </c>
       <c r="O22">
-        <v>2.182806629222</v>
+        <v>3.750831530649407</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.462499159882384</v>
+        <v>0.4546327736923388</v>
       </c>
       <c r="D23">
-        <v>0.2240831244237711</v>
+        <v>0.2116708982063358</v>
       </c>
       <c r="E23">
-        <v>0.1530955495206641</v>
+        <v>0.192447368361151</v>
       </c>
       <c r="F23">
-        <v>0.9875590111074217</v>
+        <v>1.567872664796681</v>
       </c>
       <c r="G23">
-        <v>0.6275786811071811</v>
+        <v>0.9133356894681981</v>
       </c>
       <c r="H23">
-        <v>0.4099313752547715</v>
+        <v>0.944467702252652</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1439186063231546</v>
+        <v>0.2249168477647032</v>
       </c>
       <c r="K23">
-        <v>5.345006093454629</v>
+        <v>2.050659018985925</v>
       </c>
       <c r="L23">
-        <v>0.1048118265820435</v>
+        <v>0.1708988567421841</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.085573635383071</v>
+        <v>1.303725337013859</v>
       </c>
       <c r="O23">
-        <v>2.138806560761452</v>
+        <v>3.752635886238721</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4069864172271025</v>
+        <v>0.4434002989285091</v>
       </c>
       <c r="D24">
-        <v>0.1965230025766118</v>
+        <v>0.2051306104522155</v>
       </c>
       <c r="E24">
-        <v>0.1368004940308651</v>
+        <v>0.1895142608638309</v>
       </c>
       <c r="F24">
-        <v>0.9045318529277182</v>
+        <v>1.565517748481781</v>
       </c>
       <c r="G24">
-        <v>0.5703998172880915</v>
+        <v>0.9123896861698739</v>
       </c>
       <c r="H24">
-        <v>0.3936231115698234</v>
+        <v>0.9506823362037409</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1311398304939217</v>
+        <v>0.2236198503009561</v>
       </c>
       <c r="K24">
-        <v>4.579391642559415</v>
+        <v>1.820572831002437</v>
       </c>
       <c r="L24">
-        <v>0.09562403162482269</v>
+        <v>0.1695559675298739</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.048448782887291</v>
+        <v>1.296249497868089</v>
       </c>
       <c r="O24">
-        <v>1.982797890693917</v>
+        <v>3.763179076892129</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3489203114195618</v>
+        <v>0.4319930553073732</v>
       </c>
       <c r="D25">
-        <v>0.1673115560163581</v>
+        <v>0.1983101005878893</v>
       </c>
       <c r="E25">
-        <v>0.1198038823704977</v>
+        <v>0.1866138606205467</v>
       </c>
       <c r="F25">
-        <v>0.8226596111806543</v>
+        <v>1.566066413070146</v>
       </c>
       <c r="G25">
-        <v>0.5148792259039112</v>
+        <v>0.913551399452416</v>
       </c>
       <c r="H25">
-        <v>0.3794639688726562</v>
+        <v>0.9589770313698835</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1181262184155898</v>
+        <v>0.2225652364883715</v>
       </c>
       <c r="K25">
-        <v>3.75730765232305</v>
+        <v>1.572331972786515</v>
       </c>
       <c r="L25">
-        <v>0.08608068308235772</v>
+        <v>0.168303116363397</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.012779974945872</v>
+        <v>1.289833877522852</v>
       </c>
       <c r="O25">
-        <v>1.834712269682967</v>
+        <v>3.782467073059848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4242059179547937</v>
+        <v>0.3074748644725105</v>
       </c>
       <c r="D2">
-        <v>0.1934919952619367</v>
+        <v>0.1461718679298372</v>
       </c>
       <c r="E2">
-        <v>0.1847061095799241</v>
+        <v>0.1077157314617452</v>
       </c>
       <c r="F2">
-        <v>1.569126101909163</v>
+        <v>0.7680839529950063</v>
       </c>
       <c r="G2">
-        <v>0.9162775796953326</v>
+        <v>0.4785255133642181</v>
       </c>
       <c r="H2">
-        <v>0.9664544584577754</v>
+        <v>0.3716446163887355</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2220857320067822</v>
+        <v>0.1091168447676409</v>
       </c>
       <c r="K2">
-        <v>1.389556250315991</v>
+        <v>3.153844685666741</v>
       </c>
       <c r="L2">
-        <v>0.1675501044385541</v>
+        <v>0.07932986047745771</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.286538529941922</v>
+        <v>0.9898933669689569</v>
       </c>
       <c r="O2">
-        <v>3.803466808656538</v>
+        <v>1.74069204392535</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4193116607325891</v>
+        <v>0.2800884038415887</v>
       </c>
       <c r="D3">
-        <v>0.1903551570391926</v>
+        <v>0.1320408365854888</v>
       </c>
       <c r="E3">
-        <v>0.183556004613564</v>
+        <v>0.09975633995956557</v>
       </c>
       <c r="F3">
-        <v>1.572856189925844</v>
+        <v>0.7342434931302577</v>
       </c>
       <c r="G3">
-        <v>0.9192893309116528</v>
+        <v>0.4563595701543051</v>
       </c>
       <c r="H3">
-        <v>0.9723775012726463</v>
+        <v>0.3678127928288433</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2219464923611625</v>
+        <v>0.103327163869146</v>
       </c>
       <c r="K3">
-        <v>1.265718408431127</v>
+        <v>2.745395176880493</v>
       </c>
       <c r="L3">
-        <v>0.167146121090763</v>
+        <v>0.07490873698574774</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.285202279938034</v>
+        <v>0.9763125464950519</v>
       </c>
       <c r="O3">
-        <v>3.821934823871459</v>
+        <v>1.685262142441076</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4164961663937135</v>
+        <v>0.2635841118616327</v>
       </c>
       <c r="D4">
-        <v>0.1884929830112156</v>
+        <v>0.1234504159018854</v>
       </c>
       <c r="E4">
-        <v>0.1829205418578894</v>
+        <v>0.09497403352288813</v>
       </c>
       <c r="F4">
-        <v>1.575963697964795</v>
+        <v>0.7148901225417461</v>
       </c>
       <c r="G4">
-        <v>0.9217119713380697</v>
+        <v>0.4438604879713353</v>
       </c>
       <c r="H4">
-        <v>0.9764365902572507</v>
+        <v>0.3661352714188411</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2219527906590457</v>
+        <v>0.09991564115058793</v>
       </c>
       <c r="K4">
-        <v>1.189708508205314</v>
+        <v>2.494681184043714</v>
       </c>
       <c r="L4">
-        <v>0.1669507612362295</v>
+        <v>0.07226459740903124</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.284826507135335</v>
+        <v>0.968872112572214</v>
       </c>
       <c r="O4">
-        <v>3.835362702607085</v>
+        <v>1.654985322003682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4153966376714635</v>
+        <v>0.2569319177567451</v>
       </c>
       <c r="D5">
-        <v>0.1877502867354508</v>
+        <v>0.1199700098288901</v>
       </c>
       <c r="E5">
-        <v>0.182679418098985</v>
+        <v>0.09305017696532403</v>
       </c>
       <c r="F5">
-        <v>1.577435602051182</v>
+        <v>0.707344002751185</v>
       </c>
       <c r="G5">
-        <v>0.9228433157135356</v>
+        <v>0.4390312067274991</v>
       </c>
       <c r="H5">
-        <v>0.978196953668089</v>
+        <v>0.3656146413047026</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2219784752563072</v>
+        <v>0.09855973293030473</v>
       </c>
       <c r="K5">
-        <v>1.158743051111486</v>
+        <v>2.392508787276341</v>
       </c>
       <c r="L5">
-        <v>0.1668844412293637</v>
+        <v>0.07120405332852187</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.284785584153994</v>
+        <v>0.9660585540067075</v>
       </c>
       <c r="O5">
-        <v>3.841359747022466</v>
+        <v>1.643545684808402</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4152169531373602</v>
+        <v>0.2558316259466551</v>
       </c>
       <c r="D6">
-        <v>0.1876279411572597</v>
+        <v>0.1193932755595597</v>
       </c>
       <c r="E6">
-        <v>0.1826404582742995</v>
+        <v>0.09273219131682708</v>
       </c>
       <c r="F6">
-        <v>1.577692428650678</v>
+        <v>0.7061110399148589</v>
       </c>
       <c r="G6">
-        <v>0.9230398751469622</v>
+        <v>0.4382448356634541</v>
       </c>
       <c r="H6">
-        <v>0.9784956796898854</v>
+        <v>0.3655378410065779</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2219841374993905</v>
+        <v>0.09833660884292783</v>
       </c>
       <c r="K6">
-        <v>1.153601886486172</v>
+        <v>2.375542217954802</v>
       </c>
       <c r="L6">
-        <v>0.166874232806201</v>
+        <v>0.07102895418960031</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.284785577466693</v>
+        <v>0.9656043523172144</v>
       </c>
       <c r="O6">
-        <v>3.842387262579507</v>
+        <v>1.641699088311356</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4164811440159042</v>
+        <v>0.2634941068542673</v>
       </c>
       <c r="D7">
-        <v>0.1884829012097384</v>
+        <v>0.1234033976763982</v>
       </c>
       <c r="E7">
-        <v>0.1829172177051781</v>
+        <v>0.09494798838083796</v>
       </c>
       <c r="F7">
-        <v>1.575982716140018</v>
+        <v>0.7147869969524479</v>
       </c>
       <c r="G7">
-        <v>0.9217266457149833</v>
+        <v>0.4437943083739668</v>
       </c>
       <c r="H7">
-        <v>0.9764599008507844</v>
+        <v>0.3661275989202579</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2219530433986066</v>
+        <v>0.09989721818858754</v>
       </c>
       <c r="K7">
-        <v>1.189290856816001</v>
+        <v>2.493303299048108</v>
       </c>
       <c r="L7">
-        <v>0.1669498129518132</v>
+        <v>0.07225022681638649</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.28482550039368</v>
+        <v>0.9688332927808574</v>
       </c>
       <c r="O7">
-        <v>3.835441454949489</v>
+        <v>1.654827465145189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4224791032751085</v>
+        <v>0.2979644771343857</v>
       </c>
       <c r="D8">
-        <v>0.192397216892644</v>
+        <v>0.1412807576954123</v>
       </c>
       <c r="E8">
-        <v>0.1842949092071535</v>
+        <v>0.1049487297590908</v>
       </c>
       <c r="F8">
-        <v>1.570242663116233</v>
+        <v>0.7561090905778158</v>
       </c>
       <c r="G8">
-        <v>0.917196963319256</v>
+        <v>0.4706427823864345</v>
       </c>
       <c r="H8">
-        <v>0.9684091052352954</v>
+        <v>0.3701790507567466</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2220186918763716</v>
+        <v>0.1070897342369506</v>
       </c>
       <c r="K8">
-        <v>1.346852748435367</v>
+        <v>3.012980872540879</v>
       </c>
       <c r="L8">
-        <v>0.1673999004436482</v>
+        <v>0.0777903703217504</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.285985722477903</v>
+        <v>0.9850196813204946</v>
       </c>
       <c r="O8">
-        <v>3.809401070009073</v>
+        <v>1.720771337262647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4357407181945518</v>
+        <v>0.3682607045555528</v>
       </c>
       <c r="D9">
-        <v>0.2005761081359623</v>
+        <v>0.1770894078304508</v>
       </c>
       <c r="E9">
-        <v>0.1875555672110139</v>
+        <v>0.1254583527923572</v>
       </c>
       <c r="F9">
-        <v>1.565469025537709</v>
+        <v>0.8492941957413649</v>
       </c>
       <c r="G9">
-        <v>0.9128690794626237</v>
+        <v>0.5328292497958529</v>
       </c>
       <c r="H9">
-        <v>0.9559702319344723</v>
+        <v>0.3838065977369496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2228744060517656</v>
+        <v>0.1224151999221732</v>
       </c>
       <c r="K9">
-        <v>1.655955551951251</v>
+        <v>4.033855212143635</v>
       </c>
       <c r="L9">
-        <v>0.1686988996751708</v>
+        <v>0.08924997687739022</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.291773857669739</v>
+        <v>1.024245884159171</v>
       </c>
       <c r="O9">
-        <v>3.77491326624002</v>
+        <v>1.882112329053598</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4463933917397469</v>
+        <v>0.421898710521134</v>
       </c>
       <c r="D10">
-        <v>0.2068874754244945</v>
+        <v>0.2039590585108471</v>
       </c>
       <c r="E10">
-        <v>0.1902897029258455</v>
+        <v>0.141174084804895</v>
       </c>
       <c r="F10">
-        <v>1.565913810592605</v>
+        <v>0.9264175959105074</v>
       </c>
       <c r="G10">
-        <v>0.912474452132912</v>
+        <v>0.585396822225988</v>
       </c>
       <c r="H10">
-        <v>0.9488703853088083</v>
+        <v>0.3977622705009765</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2239448196654195</v>
+        <v>0.134543185159842</v>
       </c>
       <c r="K10">
-        <v>1.883030467533445</v>
+        <v>4.786832208524515</v>
       </c>
       <c r="L10">
-        <v>0.1699051154265021</v>
+        <v>0.09808693745556951</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.298149399008409</v>
+        <v>1.058161644356673</v>
       </c>
       <c r="O10">
-        <v>3.759694034043719</v>
+        <v>2.023435949763694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4514360961225918</v>
+        <v>0.4468146200630088</v>
       </c>
       <c r="D11">
-        <v>0.2098234740445832</v>
+        <v>0.2163292257881722</v>
       </c>
       <c r="E11">
-        <v>0.1916065917210652</v>
+        <v>0.1484879027393013</v>
       </c>
       <c r="F11">
-        <v>1.566974458462667</v>
+        <v>0.9636806381755179</v>
       </c>
       <c r="G11">
-        <v>0.912901558700554</v>
+        <v>0.6110577830283717</v>
       </c>
       <c r="H11">
-        <v>0.9460827549424096</v>
+        <v>0.4050811899822122</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2245274084705429</v>
+        <v>0.1402786299330145</v>
       </c>
       <c r="K11">
-        <v>1.986308224748484</v>
+        <v>5.130470898469014</v>
       </c>
       <c r="L11">
-        <v>0.1705081338457575</v>
+        <v>0.1022108187026021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.301507100064342</v>
+        <v>1.074824828888666</v>
       </c>
       <c r="O11">
-        <v>3.754970745686364</v>
+        <v>2.093450205587487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4533738187837457</v>
+        <v>0.456331034541023</v>
       </c>
       <c r="D12">
-        <v>0.2109445085899324</v>
+        <v>0.2210367790991938</v>
       </c>
       <c r="E12">
-        <v>0.1921157307508778</v>
+        <v>0.1512832293246653</v>
       </c>
       <c r="F12">
-        <v>1.567499497309498</v>
+        <v>0.9781310321216523</v>
       </c>
       <c r="G12">
-        <v>0.913150653322603</v>
+        <v>0.6210488219123818</v>
       </c>
       <c r="H12">
-        <v>0.9450906875177907</v>
+        <v>0.4080024063344183</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2247617441997747</v>
+        <v>0.1424845229106637</v>
       </c>
       <c r="K12">
-        <v>2.02541185073602</v>
+        <v>5.26079628473218</v>
       </c>
       <c r="L12">
-        <v>0.1707442516788618</v>
+        <v>0.1037885181043521</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.302844022827941</v>
+        <v>1.081323650339257</v>
       </c>
       <c r="O12">
-        <v>3.753498712744147</v>
+        <v>2.120855317411525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4529552452265477</v>
+        <v>0.4542777694644258</v>
       </c>
       <c r="D13">
-        <v>0.2107026645892915</v>
+        <v>0.2200218546788477</v>
       </c>
       <c r="E13">
-        <v>0.1920056140905828</v>
+        <v>0.1506800263621955</v>
       </c>
       <c r="F13">
-        <v>1.56738093327499</v>
+        <v>0.9750033347402649</v>
       </c>
       <c r="G13">
-        <v>0.913093119030151</v>
+        <v>0.6188845213758754</v>
       </c>
       <c r="H13">
-        <v>0.9453015211513218</v>
+        <v>0.4073664427927923</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2247106660382414</v>
+        <v>0.1420078885605776</v>
       </c>
       <c r="K13">
-        <v>2.016990467211258</v>
+        <v>5.232718987793646</v>
       </c>
       <c r="L13">
-        <v>0.1706930546553664</v>
+        <v>0.1034479984325927</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.302553187795809</v>
+        <v>1.079915426425913</v>
       </c>
       <c r="O13">
-        <v>3.753801658269367</v>
+        <v>2.114912304736123</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4515949501225691</v>
+        <v>0.4475958691360802</v>
       </c>
       <c r="D14">
-        <v>0.2099155177127869</v>
+        <v>0.2167160407310718</v>
       </c>
       <c r="E14">
-        <v>0.1916482695241974</v>
+        <v>0.1487173476678798</v>
       </c>
       <c r="F14">
-        <v>1.567015180887196</v>
+        <v>0.9648625156253985</v>
       </c>
       <c r="G14">
-        <v>0.9129203003447088</v>
+        <v>0.6118741303361475</v>
       </c>
       <c r="H14">
-        <v>0.945999863535107</v>
+        <v>0.4053184592744259</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2245464125898167</v>
+        <v>0.1404594129928327</v>
       </c>
       <c r="K14">
-        <v>1.989525426941327</v>
+        <v>5.141188672524663</v>
       </c>
       <c r="L14">
-        <v>0.1705274039577986</v>
+        <v>0.1023402880266175</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.301615780053652</v>
+        <v>1.07535563892003</v>
       </c>
       <c r="O14">
-        <v>3.754843294816141</v>
+        <v>2.095686546975031</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4507653934205109</v>
+        <v>0.443513820436948</v>
       </c>
       <c r="D15">
-        <v>0.2094345672822442</v>
+        <v>0.214694225494398</v>
       </c>
       <c r="E15">
-        <v>0.1914307465468355</v>
+        <v>0.1475185665271326</v>
       </c>
       <c r="F15">
-        <v>1.5668072157045</v>
+        <v>0.9586960209334165</v>
       </c>
       <c r="G15">
-        <v>0.9128258243312786</v>
+        <v>0.6076164126125718</v>
       </c>
       <c r="H15">
-        <v>0.946435893328669</v>
+        <v>0.404083819214506</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.224447588648971</v>
+        <v>0.1395154358539656</v>
       </c>
       <c r="K15">
-        <v>1.972701514617427</v>
+        <v>5.085150528411418</v>
       </c>
       <c r="L15">
-        <v>0.1704269485063534</v>
+        <v>0.1016639119144287</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.301050102109571</v>
+        <v>1.072587577360167</v>
       </c>
       <c r="O15">
-        <v>3.755522560875761</v>
+        <v>2.084028537939332</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4460677869391816</v>
+        <v>0.4202813739027818</v>
       </c>
       <c r="D16">
-        <v>0.206696898876416</v>
+        <v>0.2031537734418407</v>
       </c>
       <c r="E16">
-        <v>0.190205107971785</v>
+        <v>0.1406995961184379</v>
       </c>
       <c r="F16">
-        <v>1.565861763669361</v>
+        <v>0.9240284287003533</v>
       </c>
       <c r="G16">
-        <v>0.9124587574055028</v>
+        <v>0.5837568721831872</v>
       </c>
       <c r="H16">
-        <v>0.9490614576814664</v>
+        <v>0.3973043412896118</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2239086680891944</v>
+        <v>0.1341729728078462</v>
       </c>
       <c r="K16">
-        <v>1.876280405055809</v>
+        <v>4.764400027491604</v>
       </c>
       <c r="L16">
-        <v>0.1698667959885611</v>
+        <v>0.09781961801074601</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.297939140519688</v>
+        <v>1.057098459031465</v>
       </c>
       <c r="O16">
-        <v>3.760047000332321</v>
+        <v>2.018981347382066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4432362556556768</v>
+        <v>0.406166033522311</v>
       </c>
       <c r="D17">
-        <v>0.2050339853955023</v>
+        <v>0.1961131829361307</v>
       </c>
       <c r="E17">
-        <v>0.189471908142675</v>
+        <v>0.1365599746929433</v>
       </c>
       <c r="F17">
-        <v>1.565501572906868</v>
+        <v>0.9033372973130867</v>
       </c>
       <c r="G17">
-        <v>0.912389035278764</v>
+        <v>0.5695829531335193</v>
       </c>
       <c r="H17">
-        <v>0.9507853742663173</v>
+        <v>0.3934009043978932</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2236025333442981</v>
+        <v>0.1309532683457775</v>
       </c>
       <c r="K17">
-        <v>1.817122279758905</v>
+        <v>4.567939144965976</v>
       </c>
       <c r="L17">
-        <v>0.1695370400366301</v>
+        <v>0.09548866195009964</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.296147579289581</v>
+        <v>1.047920419048936</v>
       </c>
       <c r="O17">
-        <v>3.763386227110942</v>
+        <v>1.980590979994616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.441626160694284</v>
+        <v>0.3980953481892016</v>
       </c>
       <c r="D18">
-        <v>0.2040836386970994</v>
+        <v>0.1920773263423143</v>
       </c>
       <c r="E18">
-        <v>0.1890570762098491</v>
+        <v>0.1341943398067862</v>
       </c>
       <c r="F18">
-        <v>1.565375190985776</v>
+        <v>0.8916397447306252</v>
       </c>
       <c r="G18">
-        <v>0.9124060237937357</v>
+        <v>0.561593558059144</v>
       </c>
       <c r="H18">
-        <v>0.9518185421603675</v>
+        <v>0.3912464422599129</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2234354579321192</v>
+        <v>0.1291217663971977</v>
       </c>
       <c r="K18">
-        <v>1.783094384377705</v>
+        <v>4.455041663105249</v>
       </c>
       <c r="L18">
-        <v>0.1693524870143577</v>
+        <v>0.09415766502080913</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.295160196778184</v>
+        <v>1.042756952058326</v>
       </c>
       <c r="O18">
-        <v>3.765513925258091</v>
+        <v>1.959044361251188</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4410841962585152</v>
+        <v>0.3953708018725877</v>
       </c>
       <c r="D19">
-        <v>0.203762921331105</v>
+        <v>0.1907131469809116</v>
       </c>
       <c r="E19">
-        <v>0.1889178053812799</v>
+        <v>0.1333959549852821</v>
       </c>
       <c r="F19">
-        <v>1.565346276952098</v>
+        <v>0.8877133225273752</v>
       </c>
       <c r="G19">
-        <v>0.9124215773464073</v>
+        <v>0.5589158336173341</v>
       </c>
       <c r="H19">
-        <v>0.9521755036656145</v>
+        <v>0.3905322566671003</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.223380436716738</v>
+        <v>0.1285050764055669</v>
       </c>
       <c r="K19">
-        <v>1.771572909278177</v>
+        <v>4.416832865889546</v>
       </c>
       <c r="L19">
-        <v>0.1692908801005828</v>
+        <v>0.09370864633452669</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.294833294999364</v>
+        <v>1.041028196569727</v>
       </c>
       <c r="O19">
-        <v>3.766269884069487</v>
+        <v>1.951838824955729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4435357604840249</v>
+        <v>0.4076636088170176</v>
       </c>
       <c r="D20">
-        <v>0.2052103730028279</v>
+        <v>0.1968612326980832</v>
       </c>
       <c r="E20">
-        <v>0.1895492463012154</v>
+        <v>0.1369990396487957</v>
       </c>
       <c r="F20">
-        <v>1.565531554551001</v>
+        <v>0.9055186635141723</v>
       </c>
       <c r="G20">
-        <v>0.912390547708597</v>
+        <v>0.5710747562114022</v>
       </c>
       <c r="H20">
-        <v>0.9505975534465563</v>
+        <v>0.3938069743599186</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2236341901437697</v>
+        <v>0.13129388313736</v>
       </c>
       <c r="K20">
-        <v>1.823419958485147</v>
+        <v>4.588841959447393</v>
       </c>
       <c r="L20">
-        <v>0.1695716141520549</v>
+        <v>0.09573578357226609</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.296333838338882</v>
+        <v>1.048885404097476</v>
       </c>
       <c r="O20">
-        <v>3.763009328893588</v>
+        <v>1.984621896751463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4519937385719857</v>
+        <v>0.4495562393591115</v>
       </c>
       <c r="D21">
-        <v>0.2101464719809627</v>
+        <v>0.2176863902492272</v>
       </c>
       <c r="E21">
-        <v>0.1917529467709187</v>
+        <v>0.1492931181420367</v>
       </c>
       <c r="F21">
-        <v>1.567119262577549</v>
+        <v>0.9678316820977386</v>
       </c>
       <c r="G21">
-        <v>0.9129686894873146</v>
+        <v>0.613925634640438</v>
       </c>
       <c r="H21">
-        <v>0.9457930190152553</v>
+        <v>0.4059158543663273</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2245942856584833</v>
+        <v>0.1409132932478414</v>
       </c>
       <c r="K21">
-        <v>1.997592742613392</v>
+        <v>5.168067684113282</v>
       </c>
       <c r="L21">
-        <v>0.170575849093396</v>
+        <v>0.1026652037074385</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.301889346274777</v>
+        <v>1.076689740348172</v>
       </c>
       <c r="O21">
-        <v>3.754528747487569</v>
+        <v>2.101308829863058</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4576855924248662</v>
+        <v>0.4774130573741786</v>
       </c>
       <c r="D22">
-        <v>0.2134262834588156</v>
+        <v>0.2314333751982929</v>
       </c>
       <c r="E22">
-        <v>0.1932541477136773</v>
+        <v>0.1574791220619254</v>
       </c>
       <c r="F22">
-        <v>1.568876145086108</v>
+        <v>1.010550367095476</v>
       </c>
       <c r="G22">
-        <v>0.9138557897984469</v>
+        <v>0.6435386002376191</v>
       </c>
       <c r="H22">
-        <v>0.9430233692465322</v>
+        <v>0.4147075129260429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2253017307322409</v>
+        <v>0.1473996837492351</v>
       </c>
       <c r="K22">
-        <v>2.111391947171057</v>
+        <v>5.547792608141776</v>
       </c>
       <c r="L22">
-        <v>0.1712774326174298</v>
+        <v>0.1072882644557396</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.305901437705131</v>
+        <v>1.095967957088391</v>
       </c>
       <c r="O22">
-        <v>3.750831530649407</v>
+        <v>2.182806629222057</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4546327736923388</v>
+        <v>0.4624991598825261</v>
       </c>
       <c r="D23">
-        <v>0.2116708982063358</v>
+        <v>0.2240831244236432</v>
       </c>
       <c r="E23">
-        <v>0.192447368361151</v>
+        <v>0.1530955495206783</v>
       </c>
       <c r="F23">
-        <v>1.567872664796681</v>
+        <v>0.9875590111074217</v>
       </c>
       <c r="G23">
-        <v>0.9133356894681981</v>
+        <v>0.6275786811072521</v>
       </c>
       <c r="H23">
-        <v>0.944467702252652</v>
+        <v>0.4099313752548852</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2249168477647032</v>
+        <v>0.1439186063232043</v>
       </c>
       <c r="K23">
-        <v>2.050659018985925</v>
+        <v>5.345006093454685</v>
       </c>
       <c r="L23">
-        <v>0.1708988567421841</v>
+        <v>0.1048118265819511</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.303725337013859</v>
+        <v>1.085573635383071</v>
       </c>
       <c r="O23">
-        <v>3.752635886238721</v>
+        <v>2.138806560761424</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4434002989285091</v>
+        <v>0.4069864172269888</v>
       </c>
       <c r="D24">
-        <v>0.2051306104522155</v>
+        <v>0.1965230025767397</v>
       </c>
       <c r="E24">
-        <v>0.1895142608638309</v>
+        <v>0.1368004940308865</v>
       </c>
       <c r="F24">
-        <v>1.565517748481781</v>
+        <v>0.9045318529277324</v>
       </c>
       <c r="G24">
-        <v>0.9123896861698739</v>
+        <v>0.5703998172880915</v>
       </c>
       <c r="H24">
-        <v>0.9506823362037409</v>
+        <v>0.3936231115698234</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2236198503009561</v>
+        <v>0.1311398304938791</v>
       </c>
       <c r="K24">
-        <v>1.820572831002437</v>
+        <v>4.579391642559585</v>
       </c>
       <c r="L24">
-        <v>0.1695559675298739</v>
+        <v>0.09562403162485822</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.296249497868089</v>
+        <v>1.048448782887291</v>
       </c>
       <c r="O24">
-        <v>3.763179076892129</v>
+        <v>1.982797890693917</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4319930553073732</v>
+        <v>0.3489203114196755</v>
       </c>
       <c r="D25">
-        <v>0.1983101005878893</v>
+        <v>0.1673115560164149</v>
       </c>
       <c r="E25">
-        <v>0.1866138606205467</v>
+        <v>0.1198038823704977</v>
       </c>
       <c r="F25">
-        <v>1.566066413070146</v>
+        <v>0.8226596111806259</v>
       </c>
       <c r="G25">
-        <v>0.913551399452416</v>
+        <v>0.5148792259038686</v>
       </c>
       <c r="H25">
-        <v>0.9589770313698835</v>
+        <v>0.3794639688726704</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2225652364883715</v>
+        <v>0.1181262184156111</v>
       </c>
       <c r="K25">
-        <v>1.572331972786515</v>
+        <v>3.757307652323107</v>
       </c>
       <c r="L25">
-        <v>0.168303116363397</v>
+        <v>0.08608068308223693</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.289833877522852</v>
+        <v>1.012779974945872</v>
       </c>
       <c r="O25">
-        <v>3.782467073059848</v>
+        <v>1.834712269682939</v>
       </c>
     </row>
   </sheetData>
